--- a/实习团队任务安排.xlsx
+++ b/实习团队任务安排.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\sinosoft\InternshipTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1387966-704F-4EAC-A239-8CD6E41E2044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E32169-4401-455D-A3BD-CA005B356A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="0" windowWidth="23760" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月任务安排" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -943,6 +943,13 @@
   </si>
   <si>
     <t>2021/3/29-2021/4/9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端任务：
+（1）集成swagger2，学习如何使用Swagger为Spring Boot项目自动生成API文档；
+（2）生成swagger静态文档；
+（3）使用国产数据库连接池Druid连接mysql数据库。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1092,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,7 +1454,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1501,7 +1511,9 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>

--- a/实习团队任务安排.xlsx
+++ b/实习团队任务安排.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\sinosoft\InternshipTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E32169-4401-455D-A3BD-CA005B356A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7AE49-D5E4-4850-B7E2-A7BC14D6AF77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="0" windowWidth="23760" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="0" windowWidth="23760" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月任务安排" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -946,10 +946,44 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>后端任务：
+    <r>
+      <t xml:space="preserve">1、后端任务：
 （1）集成swagger2，学习如何使用Swagger为Spring Boot项目自动生成API文档；
 （2）生成swagger静态文档；
-（3）使用国产数据库连接池Druid连接mysql数据库。</t>
+（3）使用国产数据库连接池Druid连接mysql数据库。
+2、前端任务：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、任务提交截止日期4月19日</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">后端任务：
+（1）使用Eureka实现服务注册与发现（空余时间可了解使用Nacos实现服务注册与发现）
+（2）服务消费者： 使用Ribbon来实现服务的调用以及客户端均衡负载
+2、前端任务：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、任务提交截止日期4月26日</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +991,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,6 +1046,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1081,6 +1122,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1092,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,10 +1552,12 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1538,10 +1581,10 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1567,10 +1610,10 @@
       <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6869,6 +6912,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>